--- a/GLD.xlsx
+++ b/GLD.xlsx
@@ -11306,7 +11306,7 @@
         <v>346.4599914550781</v>
       </c>
       <c r="F251" t="n">
-        <v>18290178</v>
+        <v>18345800</v>
       </c>
       <c r="G251" t="n">
         <v>0</v>
@@ -11324,7 +11324,7 @@
         <v>0.4079732642856679</v>
       </c>
       <c r="L251" t="n">
-        <v>13854788.9</v>
+        <v>13857570</v>
       </c>
       <c r="M251" t="n">
         <v>331.2729995727539</v>
@@ -11402,7 +11402,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>18290178</v>
+        <v>18345800</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>45923</v>
